--- a/kaggle.com/Santander_Customer_Transaction_Prediction/Data_Understanding/Data_Exploration_Report.xlsx
+++ b/kaggle.com/Santander_Customer_Transaction_Prediction/Data_Understanding/Data_Exploration_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbwes\Documents\Programmierworkspaces\Python\DataScienceProjects-1\kaggle.com\Santander_Customer_Transaction_Prediction\Data_Understanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3635E-B3B9-48C0-B122-1D5498C09E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC449343-D54C-49CE-8CAF-87A879C073E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Data Exploration Report</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">*there are much more observations with the target feature being 0 </t>
+  </si>
+  <si>
+    <t>Bi-Variate Distribution</t>
+  </si>
+  <si>
+    <t>*the distribution of the samples with the Target=0 is quite similar to the samples with the Target=1</t>
+  </si>
+  <si>
+    <t>*Example "var_199"</t>
   </si>
 </sst>
 </file>
@@ -202,22 +211,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>274584</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>113751</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>131897</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
+        <xdr:cNvPr id="4" name="Grafik 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760E7508-2FFA-4DE1-BC09-4516C201330E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31BE670-C626-4A72-B51E-5E3C4DDD3A28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -233,8 +242,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="6886575"/>
-          <a:ext cx="13123809" cy="4390476"/>
+          <a:off x="1209675" y="6972301"/>
+          <a:ext cx="6370772" cy="4019550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>216138</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C86453-EB55-4FD8-AA94-636B0F807900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="12525376"/>
+          <a:ext cx="7693263" cy="3924300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -509,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,10 +625,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:1" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:2" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kaggle.com/Santander_Customer_Transaction_Prediction/Data_Understanding/Data_Exploration_Report.xlsx
+++ b/kaggle.com/Santander_Customer_Transaction_Prediction/Data_Understanding/Data_Exploration_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbwes\Documents\Programmierworkspaces\Python\DataScienceProjects-1\kaggle.com\Santander_Customer_Transaction_Prediction\Data_Understanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC449343-D54C-49CE-8CAF-87A879C073E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0CEBA0-4059-4C2F-9A88-AA1103B133FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Data Exploration Report</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>*Example "var_199"</t>
+  </si>
+  <si>
+    <t>*looking at the boxplots, we can see that the data ranges between -40 and +40</t>
+  </si>
+  <si>
+    <t>*the features have partly a very different spread and some display severe outliers</t>
+  </si>
+  <si>
+    <t>*example var_0 to var_47</t>
+  </si>
+  <si>
+    <t>*looking at the mean of the samples with target=0 and the mean of the samples with target=1, we can state a difference in mean, what could be useful to distinguish target 0 samples from target 1 samples</t>
+  </si>
+  <si>
+    <t>*example "var_95"</t>
   </si>
 </sst>
 </file>
@@ -256,13 +271,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>216138</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -288,6 +303,94 @@
         <a:xfrm>
           <a:off x="1190625" y="12525376"/>
           <a:ext cx="7693263" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>166154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>226886</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>94799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306AE562-D7FA-44CC-93E6-DCBFBB204C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714499" y="11900954"/>
+          <a:ext cx="12056937" cy="3167145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>468297</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>189924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E85333-7B18-4F8D-99F4-3174129E8F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="21288375"/>
+          <a:ext cx="6164247" cy="3104574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -562,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="Q112" sqref="Q112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,21 +728,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:2" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:2" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
